--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryAdoptionPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryAdoptionPay201819.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2018-19 Statutory Scenarios\201819 Statutory Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3848DA58-BF4C-4A47-A2AE-70E97AF4F592}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="12_ncr:500000_{3848DA58-BF4C-4A47-A2AE-70E97AF4F592}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="11" firstSheet="10" windowHeight="5400" windowWidth="15165" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrollForJuneMonthSAP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrollForJulyMonthSAP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrollForAugustMonthSAP" sheetId="9" r:id="rId8"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId10"/>
-    <sheet name="ProcessPayrollForDecMonthSAP" sheetId="12" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJan2016MontSAP" sheetId="13" r:id="rId12"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrollForJuneMonthSAP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrollForJulyMonthSAP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrollForAugustMonthSAP" r:id="rId8" sheetId="9"/>
+    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="11"/>
+    <sheet name="ProcessPayrollForDecMonthSAP" r:id="rId11" sheetId="12"/>
+    <sheet name="ProcessPayrollForJan2016MontSAP" r:id="rId12" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="193">
   <si>
     <t>TC</t>
   </si>
@@ -616,6 +616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,62 +681,62 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -752,10 +753,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -790,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,7 +843,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -947,7 +948,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -956,13 +957,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -972,7 +973,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -981,7 +982,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -990,7 +991,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1000,12 +1001,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1036,7 +1037,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1055,7 +1056,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1067,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1076,10 +1077,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -1335,12 +1336,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1349,16 +1350,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1405,7 +1406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -1443,14 +1444,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,15 +1460,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1514,7 +1515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -1554,14 +1555,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1570,16 +1571,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1626,7 +1627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="81.75" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -1666,14 +1667,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1682,8 +1683,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,7 +1707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>114</v>
       </c>
@@ -1721,12 +1722,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1735,18 +1736,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2127,15 +2128,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId1" ref="C2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="D2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2144,10 +2145,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2176,7 +2177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
@@ -2197,13 +2198,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2212,9 +2213,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,7 +2235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>114</v>
       </c>
@@ -2246,13 +2247,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2261,17 +2262,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2318,7 +2319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -2358,14 +2359,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2374,16 +2375,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2430,7 +2431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -2470,14 +2471,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2486,16 +2487,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2542,7 +2543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -2582,14 +2583,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2598,18 +2599,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2659,7 +2660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
@@ -2701,7 +2702,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryAdoptionPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryAdoptionPay201819.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2018-19 Statutory Scenarios\201819 Statutory Input sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="12_ncr:500000_{3848DA58-BF4C-4A47-A2AE-70E97AF4F592}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{51C738E6-451F-47EF-82B4-C1E359600667}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="10" windowHeight="5400" windowWidth="15165" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
-    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
-    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
-    <sheet name="ProcessPayrollForJuneMonthSAP" r:id="rId6" sheetId="7"/>
-    <sheet name="ProcessPayrollForJulyMonthSAP" r:id="rId7" sheetId="8"/>
-    <sheet name="ProcessPayrollForAugustMonthSAP" r:id="rId8" sheetId="9"/>
-    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
-    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="11"/>
-    <sheet name="ProcessPayrollForDecMonthSAP" r:id="rId11" sheetId="12"/>
-    <sheet name="ProcessPayrollForJan2016MontSAP" r:id="rId12" sheetId="13"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
+    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
+    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
+    <sheet name="ProcessPayrollForJuneMonthSAP" sheetId="7" r:id="rId6"/>
+    <sheet name="ProcessPayrollForJulyMonthSAP" sheetId="8" r:id="rId7"/>
+    <sheet name="ProcessPayrollForAugustMonthSAP" sheetId="9" r:id="rId8"/>
+    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
+    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId10"/>
+    <sheet name="ProcessPayrollForDecMonthSAP" sheetId="12" r:id="rId11"/>
+    <sheet name="ProcessPayrollForJan2016MontSAP" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="193">
   <si>
     <t>TC</t>
   </si>
@@ -549,9 +549,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>01/27/2018</t>
-  </si>
-  <si>
     <t>DONT TOUCH AUTO DIRSAP EMPLOYER</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>12/14/2018</t>
   </si>
   <si>
-    <t>12/10/2019</t>
-  </si>
-  <si>
     <t>December-2018</t>
   </si>
   <si>
@@ -610,13 +604,18 @@
   </si>
   <si>
     <t>includeInHolidayEarnings</t>
+  </si>
+  <si>
+    <t>12/10/2018</t>
+  </si>
+  <si>
+    <t>01/27/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,62 +680,62 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -753,10 +752,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -791,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,7 +842,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,7 +947,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -957,13 +956,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -973,7 +972,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -982,7 +981,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -991,7 +990,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1001,12 +1000,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1037,7 +1036,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1056,7 +1055,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1068,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1077,10 +1076,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.11328125" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -1336,12 +1335,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1350,16 +1349,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1406,28 +1405,28 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>160</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>171</v>
@@ -1444,14 +1443,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1460,15 +1459,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1515,30 +1514,30 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>164</v>
@@ -1555,32 +1554,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1627,30 +1626,30 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="81.75" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>165</v>
@@ -1667,14 +1666,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1683,8 +1682,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,12 +1706,12 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>113</v>
@@ -1722,12 +1721,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1736,18 +1735,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2128,15 +2127,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink r:id="rId2" ref="D2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2145,10 +2144,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,15 +2176,15 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="D2" s="18">
         <v>20000</v>
@@ -2198,13 +2197,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2213,9 +2212,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,7 +2234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>114</v>
       </c>
@@ -2247,13 +2246,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2262,17 +2261,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2319,30 +2318,30 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>127</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>161</v>
@@ -2359,14 +2358,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2375,16 +2374,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2431,30 +2430,30 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>127</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>162</v>
@@ -2471,14 +2470,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2487,16 +2486,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2543,30 +2542,30 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>127</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>163</v>
@@ -2583,34 +2582,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2642,13 +2641,13 @@
         <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -2660,27 +2659,27 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>185</v>
-      </c>
       <c r="F2" s="16" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>137</v>
@@ -2702,7 +2701,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryAdoptionPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryAdoptionPay201819.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{51C738E6-451F-47EF-82B4-C1E359600667}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="12_ncr:500000_{51C738E6-451F-47EF-82B4-C1E359600667}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="8" firstSheet="8" windowHeight="5400" windowWidth="15165" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrollForJuneMonthSAP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrollForJulyMonthSAP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrollForAugustMonthSAP" sheetId="9" r:id="rId8"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId10"/>
-    <sheet name="ProcessPayrollForDecMonthSAP" sheetId="12" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJan2016MontSAP" sheetId="13" r:id="rId12"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrollForJuneMonthSAP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrollForJulyMonthSAP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrollForAugustMonthSAP" r:id="rId8" sheetId="9"/>
+    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="11"/>
+    <sheet name="ProcessPayrollForDecMonthSAP" r:id="rId11" sheetId="12"/>
+    <sheet name="ProcessPayrollForJan2016MontSAP" r:id="rId12" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="193">
   <si>
     <t>TC</t>
   </si>
@@ -616,6 +616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,62 +681,62 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -752,10 +753,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -790,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,7 +843,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -947,7 +948,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -956,13 +957,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -972,7 +973,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -981,7 +982,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -990,7 +991,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1000,12 +1001,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1036,7 +1037,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1055,7 +1056,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1067,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1076,10 +1077,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -1335,12 +1336,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1349,16 +1350,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1405,7 +1406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>172</v>
       </c>
@@ -1443,14 +1444,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,15 +1460,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1514,7 +1515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>172</v>
       </c>
@@ -1554,14 +1555,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1570,16 +1571,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1626,7 +1627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="81.75" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>172</v>
       </c>
@@ -1666,14 +1667,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1682,8 +1683,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,7 +1707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>114</v>
       </c>
@@ -1721,12 +1722,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1735,18 +1736,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2127,15 +2128,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId1" ref="C2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="D2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2144,10 +2145,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2176,7 +2177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
@@ -2197,13 +2198,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2212,9 +2213,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,7 +2235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>114</v>
       </c>
@@ -2246,13 +2247,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2261,17 +2262,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2318,7 +2319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>172</v>
       </c>
@@ -2358,14 +2359,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2374,16 +2375,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2430,7 +2431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>172</v>
       </c>
@@ -2470,14 +2471,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2486,16 +2487,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2542,7 +2543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>172</v>
       </c>
@@ -2582,14 +2583,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2598,18 +2599,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2659,7 +2660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.25" r="2" s="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
@@ -2701,7 +2702,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>